--- a/results/mp/logistic/corona/confidence/210/desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.15/avg_0.002_scores.xlsx
@@ -40,51 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -94,93 +88,102 @@
     <t>drop</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>the</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
@@ -190,109 +193,106 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
         <v>33</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -769,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,49 +819,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.868421052631579</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
+        <v>248</v>
+      </c>
+      <c r="D5">
+        <v>248</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="K5">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L5">
+        <v>115</v>
+      </c>
+      <c r="M5">
+        <v>115</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="L5">
-        <v>44</v>
-      </c>
-      <c r="M5">
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0.9473684210526315</v>
@@ -919,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8561643835616438</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -969,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1019,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.9230769230769231</v>
@@ -1169,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7222222222222222</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.9190600522193212</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L12">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L13">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8943661971830986</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5174418604651163</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0.8936170212765957</v>
@@ -1419,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5608465608465608</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C17">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>0.8928571428571429</v>
@@ -1469,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4883720930232558</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C18">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>0.890625</v>
@@ -1519,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4509803921568628</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8888888888888888</v>
+        <v>0.88125</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4406779661016949</v>
+        <v>0.28</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8867924528301887</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L20">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M20">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.28</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>0.875</v>
       </c>
       <c r="L21">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,16 +1690,16 @@
         <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2147651006711409</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.08055555555555556</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1787,60 +1787,36 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L24">
+        <v>70</v>
+      </c>
+      <c r="M24">
+        <v>70</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L24">
-        <v>31</v>
-      </c>
-      <c r="M24">
-        <v>31</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.002905850445563735</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>0.17</v>
-      </c>
-      <c r="F25">
-        <v>0.83</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>5147</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="K25">
         <v>0.8461538461538461</v>
@@ -1866,16 +1842,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1939,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.8095238095238095</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1965,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1991,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.7894736842105263</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2017,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.78</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2043,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2069,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.7617647058823529</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L34">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2095,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.7428571428571429</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2121,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.735593220338983</v>
+        <v>0.72</v>
       </c>
       <c r="L36">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2147,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2173,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.7112970711297071</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2199,21 +2175,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.7037037037037037</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2225,47 +2201,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>0.7112970711297071</v>
+      </c>
+      <c r="L40">
+        <v>170</v>
+      </c>
+      <c r="M40">
+        <v>170</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>69</v>
-      </c>
-      <c r="K40">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L40">
-        <v>64</v>
-      </c>
-      <c r="M40">
-        <v>64</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.6785714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2277,21 +2253,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2303,21 +2279,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2329,21 +2305,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.6363636363636364</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2355,15 +2331,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.6296296296296297</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L45">
         <v>17</v>
@@ -2381,21 +2357,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.6292134831460674</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L46">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2407,12 +2383,12 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K47">
         <v>0.6285714285714286</v>
@@ -2438,16 +2414,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.5833333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2459,21 +2435,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2485,21 +2461,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.5476190476190477</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2511,21 +2487,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.5416666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2537,15 +2513,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.5416666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L52">
         <v>13</v>
@@ -2563,21 +2539,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.5384615384615384</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2589,21 +2565,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2615,21 +2591,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.5161290322580645</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2641,21 +2617,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L56">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2667,21 +2643,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2693,21 +2669,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2719,21 +2695,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.4657534246575342</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L59">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2745,21 +2721,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.4642857142857143</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2771,21 +2747,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.4222222222222222</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2797,21 +2773,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.2711864406779661</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2823,33 +2799,59 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>0.25</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>16</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K63">
-        <v>0.265625</v>
-      </c>
-      <c r="L63">
-        <v>17</v>
-      </c>
-      <c r="M63">
-        <v>17</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>47</v>
+      <c r="K64">
+        <v>0.01251042535446205</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>16</v>
+      </c>
+      <c r="N64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
